--- a/resources/experiment 2/metrics/R2/average time/Retinopatía de fondo.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Retinopatía de fondo.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9538499083740627</v>
+        <v>0.997793535912601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9538499083740627</v>
+        <v>0.9978715767131624</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9538499083740627</v>
+        <v>0.985285803019826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9983280713842545</v>
+        <v>0.9978428846270629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9983280713842545</v>
+        <v>0.9976987213718488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9983280713842545</v>
+        <v>0.9742013305079448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.877944829549441</v>
+        <v>0.9985109586975921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.877944829549441</v>
+        <v>0.9982210298571893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.877944829549441</v>
+        <v>0.9979573974830886</v>
       </c>
     </row>
   </sheetData>
